--- a/PlantSummaryExcelGeneration/bin/Debug/Plant Summary Report.xlsx
+++ b/PlantSummaryExcelGeneration/bin/Debug/Plant Summary Report.xlsx
@@ -2191,7 +2191,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4b8abaf6dc82417c"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R03229ffe783c400a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2671,7 +2671,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2a9ab9fbd3a8410f"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R54ffae4fc2004661"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3156,7 +3156,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8943f9bef1a14d3d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re4193a02aa194be7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3186,7 +3186,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R70912aac660b4626"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4f09ae4d22a54f80"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3221,7 +3221,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9be071e28bd241f3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R178e820555d949e0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3251,7 +3251,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc3a72440978048a2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbf79446ee8464e68"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3286,7 +3286,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re09a913f43dc4759"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1f11cc52c68143aa"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3316,7 +3316,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4fa9f941ecf44ac8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raef8d58ad1334fc2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
